--- a/user.xlsx
+++ b/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS162\ProjectFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C86A8E-85BB-4D9F-9CEE-063313430452}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC0ACE-7DAF-48B0-9C3F-EF6529BEDBA0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{992CB408-831C-4F3E-942F-6C93ED5C5897}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="265">
   <si>
     <t>No</t>
   </si>
@@ -54,318 +54,6 @@
     <t>Class Name</t>
   </si>
   <si>
-    <t>Hà Bình An</t>
-  </si>
-  <si>
-    <t>Khưu Kiên An</t>
-  </si>
-  <si>
-    <t>Đặng Lê Tuấn Anh</t>
-  </si>
-  <si>
-    <t>Đinh Hồ Gia Bảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Thanh Bình </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Quốc Bình </t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Bình</t>
-  </si>
-  <si>
-    <t>Long Vũ Quỳnh Châu</t>
-  </si>
-  <si>
-    <t>Lê Anh Bách Chiến</t>
-  </si>
-  <si>
-    <t>Trương Công Cường</t>
-  </si>
-  <si>
-    <t>Huỳnh Tấn Đạt</t>
-  </si>
-  <si>
-    <t>Lê Hoàng Đạt</t>
-  </si>
-  <si>
-    <t>Trịnh Hữu Đức</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Trung Đức </t>
-  </si>
-  <si>
-    <t>Lê Đoàn Thái Dương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hiền Tuấn Duy </t>
-  </si>
-  <si>
-    <t>Hồ Công Duy</t>
-  </si>
-  <si>
-    <t>Lê Đình Anh Duy</t>
-  </si>
-  <si>
-    <t>Lê Quốc Anh Duy</t>
-  </si>
-  <si>
-    <t>Phạm Bảo Duy</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Thanh Gia</t>
-  </si>
-  <si>
-    <t>Nguyễn Trường Giang</t>
-  </si>
-  <si>
-    <t>Trần Nguyễn Hiền</t>
-  </si>
-  <si>
-    <t>Đoàn Thanh Hiền</t>
-  </si>
-  <si>
-    <t>Đào Hiếu</t>
-  </si>
-  <si>
-    <t>Lê Minh Hiếu</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Hiếu</t>
-  </si>
-  <si>
-    <t>Phạm Nguyễn Huy Hoàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Đình Huân</t>
-  </si>
-  <si>
-    <t>Trần Gia Huân</t>
-  </si>
-  <si>
-    <t>Đỗ Nhật Huy</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Minh Huy</t>
-  </si>
-  <si>
-    <t>Đoàn Nhật Huy</t>
-  </si>
-  <si>
-    <t>Lê Quốc Huy</t>
-  </si>
-  <si>
-    <t>Nguyễn Phúc Khang</t>
-  </si>
-  <si>
-    <t>Doãn Ngọc Anh Khoa</t>
-  </si>
-  <si>
-    <t>Nguyễn Đăng Khoa</t>
-  </si>
-  <si>
-    <t>Phan Đăng Khoa</t>
-  </si>
-  <si>
-    <t>Võ Kiên</t>
-  </si>
-  <si>
-    <t>Đinh Nguyễn Hoàng Kim</t>
-  </si>
-  <si>
-    <t>Nguyễn Võ Đức Lộc</t>
-  </si>
-  <si>
-    <t>Trương Túc Luân</t>
-  </si>
-  <si>
-    <t>Trần Hữu Thiên Lương</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Minh</t>
-  </si>
-  <si>
-    <t>Nguyễn Phúc Minh</t>
-  </si>
-  <si>
-    <t>Vũ Hoàng Minh</t>
-  </si>
-  <si>
-    <t>Nguyễn Chấn Nam</t>
-  </si>
-  <si>
-    <t>Võ Hoàng Ngân</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồ Hữu Nghĩa</t>
-  </si>
-  <si>
-    <t>Huỳnh Hiếu Nghĩa</t>
-  </si>
-  <si>
-    <t>Vũ Đăng Nghĩa</t>
-  </si>
-  <si>
-    <t>Nguyễn Mạc Bảo Ngọc</t>
-  </si>
-  <si>
-    <t>Nguyễn Lê Nguyên</t>
-  </si>
-  <si>
-    <t>Đoàn Đắc Nguyên</t>
-  </si>
-  <si>
-    <t>Huỳnh Công Nguyên</t>
-  </si>
-  <si>
-    <t>Đỗ Trí Nhân</t>
-  </si>
-  <si>
-    <t>Huỳnh Minh Quốc Nhật</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Nhật</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huỳnh Hải Ninh </t>
-  </si>
-  <si>
-    <t>Lý Kiến Phi</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Phong</t>
-  </si>
-  <si>
-    <t>Trần Bảo Phúc</t>
-  </si>
-  <si>
-    <t>Đinh Lâm Kiều Phương</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Kim Phượng</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Quân</t>
-  </si>
-  <si>
-    <t>Nguyễn Diệp Xuân Quang</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Quang</t>
-  </si>
-  <si>
-    <t>Đinh Vũ Quỳnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Hải Sơn </t>
-  </si>
-  <si>
-    <t>Lê Tấn Đăng Tâm</t>
-  </si>
-  <si>
-    <t>Ngô Hoàng Bảo Thạch</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Thắng</t>
-  </si>
-  <si>
-    <t>Nguyễn Đức Toàn Thắng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Trung Thành </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thái Thuận Thành </t>
-  </si>
-  <si>
-    <t>Trần Triều Thạnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Nguyễn Hoàng Thi </t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Thiện</t>
-  </si>
-  <si>
-    <t>Từ Đức Thịnh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đỗ Vương Quốc Thịnh </t>
-  </si>
-  <si>
-    <t>Nguyễn Anh Thư</t>
-  </si>
-  <si>
-    <t>Trần Thị Anh Thư</t>
-  </si>
-  <si>
-    <t>Nguyễn Quang Thức</t>
-  </si>
-  <si>
-    <t>Nguyễn Trương Vĩnh Thuyên</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Quang Tiến</t>
-  </si>
-  <si>
-    <t>Nguyễn Huỳnh Tín</t>
-  </si>
-  <si>
-    <t>Nguyễn Ngọc Phương Trang</t>
-  </si>
-  <si>
-    <t>Hồ Minh Trí</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Trí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngô Lê Phương Trinh </t>
-  </si>
-  <si>
-    <t>Trần Công Hoàng Trọng</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thanh Trúc</t>
-  </si>
-  <si>
-    <t>Goi Chí Trung</t>
-  </si>
-  <si>
-    <t>Thái Hoàng Tuấn</t>
-  </si>
-  <si>
-    <t>Bùi Dương Tuấn</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Thanh Tuấn</t>
-  </si>
-  <si>
-    <t>Phạm Minh Tuấn</t>
-  </si>
-  <si>
-    <t>Nguyễn Thanh Tùng</t>
-  </si>
-  <si>
-    <t>Nguyễn Trọng Tùng</t>
-  </si>
-  <si>
-    <t>Đoàn Lê Cát Uyên</t>
-  </si>
-  <si>
-    <t>Lương Thế Văn</t>
-  </si>
-  <si>
-    <t>Huỳnh Thanh Vy</t>
-  </si>
-  <si>
-    <t>Lê Phạm Ngọc Yến</t>
-  </si>
-  <si>
-    <t>Trương Trần Hải Yến</t>
-  </si>
-  <si>
     <t>hban@apcs.vn</t>
   </si>
   <si>
@@ -676,6 +364,462 @@
   </si>
   <si>
     <t>17CTT2</t>
+  </si>
+  <si>
+    <t>dbtien</t>
+  </si>
+  <si>
+    <t>dbtien@fit.hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>dnkha</t>
+  </si>
+  <si>
+    <t>dnkha@fit.hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>tploc</t>
+  </si>
+  <si>
+    <t>tploc@fit.hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>htthanh</t>
+  </si>
+  <si>
+    <t>htthanh@fit.hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>nhanh</t>
+  </si>
+  <si>
+    <t>Ha Binh An</t>
+  </si>
+  <si>
+    <t>Khuu Kien An</t>
+  </si>
+  <si>
+    <t>Dang Le Tuan Anh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinh Ho Gia Bao </t>
+  </si>
+  <si>
+    <t>Le Thanh Binh</t>
+  </si>
+  <si>
+    <t>Nguyen Quoc Binh</t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Binh</t>
+  </si>
+  <si>
+    <t>Long Vu Quynh Chau</t>
+  </si>
+  <si>
+    <t>Le Anh Bach Chien</t>
+  </si>
+  <si>
+    <t>Truong Cong Cuong</t>
+  </si>
+  <si>
+    <t>Huynh Tan Dat</t>
+  </si>
+  <si>
+    <t>Le Hoang Dat</t>
+  </si>
+  <si>
+    <t>Trinh Huu Duc</t>
+  </si>
+  <si>
+    <t>Tran Trung Duc</t>
+  </si>
+  <si>
+    <t>Le Doan Thai Duong</t>
+  </si>
+  <si>
+    <t>Nguyen Hien Tuan Duy</t>
+  </si>
+  <si>
+    <t>Ho Cong Duy</t>
+  </si>
+  <si>
+    <t>Le Dinh Anh Duy</t>
+  </si>
+  <si>
+    <t>Le Quoc Anh Duy</t>
+  </si>
+  <si>
+    <t>Pham Bao Duy</t>
+  </si>
+  <si>
+    <t>Nguyen Hoang Thanh Gia</t>
+  </si>
+  <si>
+    <t>Nguyen Truong Giang</t>
+  </si>
+  <si>
+    <t>Tran Nguyen Hien</t>
+  </si>
+  <si>
+    <t>Doan Thanh Hien</t>
+  </si>
+  <si>
+    <t>Dao Hieu</t>
+  </si>
+  <si>
+    <t>Le Minh Hieu</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Hieu</t>
+  </si>
+  <si>
+    <t>Pham Nguyen Huy Hoang</t>
+  </si>
+  <si>
+    <t>Nguyen Dinh Huan</t>
+  </si>
+  <si>
+    <t>Tran Gia Huan</t>
+  </si>
+  <si>
+    <t>Do Nhat Huy</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Minh Huy</t>
+  </si>
+  <si>
+    <t>Doan Nhat Huy</t>
+  </si>
+  <si>
+    <t>Le Quoc Huy</t>
+  </si>
+  <si>
+    <t>Nguyen Phuc Khang</t>
+  </si>
+  <si>
+    <t>Doan Ngoc Anh Khoa</t>
+  </si>
+  <si>
+    <t>Nguyen Dang Khoa</t>
+  </si>
+  <si>
+    <t>Phan Dang Khoa</t>
+  </si>
+  <si>
+    <t>Vo Kien</t>
+  </si>
+  <si>
+    <t>Dinh Nguyen Hoang Kim</t>
+  </si>
+  <si>
+    <t>Nguyen Vo Duc Loc</t>
+  </si>
+  <si>
+    <t>Truong Tuc Luan</t>
+  </si>
+  <si>
+    <t>Tran Huu Thien Luong</t>
+  </si>
+  <si>
+    <t>Nguyen Hoang Minh</t>
+  </si>
+  <si>
+    <t>Nguyen Phuc Minh</t>
+  </si>
+  <si>
+    <t>Vu Hoang Minh</t>
+  </si>
+  <si>
+    <t>Nguyen Chan Nam</t>
+  </si>
+  <si>
+    <t>Vo Hoang Ngan</t>
+  </si>
+  <si>
+    <t>Nguyen Ho Huu Nghia</t>
+  </si>
+  <si>
+    <t>Huynh Hieu Nghia</t>
+  </si>
+  <si>
+    <t>Vu Dang Nghia</t>
+  </si>
+  <si>
+    <t>Nguyen Mac Bao Ngoc</t>
+  </si>
+  <si>
+    <t>Nguyen Le Nguyen</t>
+  </si>
+  <si>
+    <t>Doan Dac Nguyen</t>
+  </si>
+  <si>
+    <t>Huynh Cong Nguyen</t>
+  </si>
+  <si>
+    <t>Do Tri Nhan</t>
+  </si>
+  <si>
+    <t>Huynh Minh Quoc Nhat</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Nhat</t>
+  </si>
+  <si>
+    <t>Huynh Hai Ninh</t>
+  </si>
+  <si>
+    <t>Ly Kien Phi</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Phong</t>
+  </si>
+  <si>
+    <t>Tran Bao Phuc</t>
+  </si>
+  <si>
+    <t>Dinh Lam Kieu Phuong</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Kim Phuong</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Quan</t>
+  </si>
+  <si>
+    <t>Nguyen Diep Xuan Quang</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Quang</t>
+  </si>
+  <si>
+    <t>Dinh Vu Quynh</t>
+  </si>
+  <si>
+    <t>Nguyen Hai Son</t>
+  </si>
+  <si>
+    <t>Le Tan Dang Tam</t>
+  </si>
+  <si>
+    <t>Ngo Hoang Bao Thach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyen Duc Thang </t>
+  </si>
+  <si>
+    <t>Nguyen Duc Toan Thang</t>
+  </si>
+  <si>
+    <t>Vo Trung Thanh</t>
+  </si>
+  <si>
+    <t>Thai Thuan Thanh</t>
+  </si>
+  <si>
+    <t>Tran Trieu Thanh</t>
+  </si>
+  <si>
+    <t>Nguyen Nguyen Hoang Thi</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Thien</t>
+  </si>
+  <si>
+    <t>Tu Duc Thinh</t>
+  </si>
+  <si>
+    <t>Do Vuong Quoc Thinh</t>
+  </si>
+  <si>
+    <t>Nguyen Anh Thu</t>
+  </si>
+  <si>
+    <t>Tran Thi Anh Thu</t>
+  </si>
+  <si>
+    <t>Nguyen Quang Thuc</t>
+  </si>
+  <si>
+    <t>Nguyen Truong Vinh Thuyen</t>
+  </si>
+  <si>
+    <t>Nguyen Van Quang Tien</t>
+  </si>
+  <si>
+    <t>Nguyen Huynh Tin</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Phuong Trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ho Minh Tri </t>
+  </si>
+  <si>
+    <t>Nguyen Minh Tri</t>
+  </si>
+  <si>
+    <t>Ngo Le Phuong Trinh</t>
+  </si>
+  <si>
+    <t>Trang Cong Hoang Trong</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thanh Truc</t>
+  </si>
+  <si>
+    <t>Goi Chi Trung</t>
+  </si>
+  <si>
+    <t>Thai Hoang Tuan</t>
+  </si>
+  <si>
+    <t>Bui Duong Tuan</t>
+  </si>
+  <si>
+    <t>Nguyen Hoang Thanh Tuan</t>
+  </si>
+  <si>
+    <t>Pham Minh Tuan</t>
+  </si>
+  <si>
+    <t>Nguyen Thanh Tung</t>
+  </si>
+  <si>
+    <t>Nguyen Trong Tung</t>
+  </si>
+  <si>
+    <t>Doan Le Cat Uyen</t>
+  </si>
+  <si>
+    <t>Luong The Van</t>
+  </si>
+  <si>
+    <t>Huynh Thanh Vy</t>
+  </si>
+  <si>
+    <t>Le Pham Ngoc Yen</t>
+  </si>
+  <si>
+    <t>Truong Tran Hai Yen</t>
+  </si>
+  <si>
+    <t>Dinh Ba Tien</t>
+  </si>
+  <si>
+    <t>Do Nguyen Kha</t>
+  </si>
+  <si>
+    <t>Truong Phuoc Loc</t>
+  </si>
+  <si>
+    <t>Ho Tuan Thanh</t>
+  </si>
+  <si>
+    <t>Nguyen Huu Anh</t>
+  </si>
+  <si>
+    <t>huuanh@gmail.com</t>
+  </si>
+  <si>
+    <t>nhtnhat</t>
+  </si>
+  <si>
+    <t>Nguyen Huu Tri Nhat</t>
+  </si>
+  <si>
+    <t>nhtnhat@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>nttvan</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thu Van</t>
+  </si>
+  <si>
+    <t>nttvan@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>vththu</t>
+  </si>
+  <si>
+    <t>Vu Thi Hanh Thu</t>
+  </si>
+  <si>
+    <t>vththu@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>nnkngan</t>
+  </si>
+  <si>
+    <t>Nguyen Nhat Kim Ngan</t>
+  </si>
+  <si>
+    <t>nnkngan@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>dnvu</t>
+  </si>
+  <si>
+    <t>Duong Nguyen Vu</t>
+  </si>
+  <si>
+    <t>dnvu@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>nhnha</t>
+  </si>
+  <si>
+    <t>Nguyen Huu Nha</t>
+  </si>
+  <si>
+    <t>huunha@gmail.com</t>
+  </si>
+  <si>
+    <t>ndhminh</t>
+  </si>
+  <si>
+    <t>Nguyen Duy Hoang Minh</t>
+  </si>
+  <si>
+    <t>ndhminh@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>nnthu</t>
+  </si>
+  <si>
+    <t>Nguyen Ngoc Thu</t>
+  </si>
+  <si>
+    <t>nnthu@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>nvhung</t>
+  </si>
+  <si>
+    <t>Nguyen Van Hung</t>
+  </si>
+  <si>
+    <t>nvhung@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>ltathao</t>
+  </si>
+  <si>
+    <t>Le Thi Anh Thao</t>
+  </si>
+  <si>
+    <t>ltathao@hcmus.edu.vn</t>
+  </si>
+  <si>
+    <t>hmlan</t>
+  </si>
+  <si>
+    <t>Hoang Moc Lan</t>
+  </si>
+  <si>
+    <t>hmlan@hcmus.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -720,12 +864,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1043,17 +1192,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C376B8-DFE9-479B-AE32-07DC2F8F37C0}">
   <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -1061,2816 +1210,3512 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1751047</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="D2" s="1">
         <v>1751047</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>215</v>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1751048</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="D3" s="1">
         <v>1751048</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>215</v>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1751049</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="D4" s="1">
         <v>1751049</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>215</v>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1751050</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D5" s="1">
         <v>1751050</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>215</v>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1751051</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
+      <c r="C6" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="D6" s="1">
         <v>1751051</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>215</v>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1751052</v>
       </c>
-      <c r="C7" t="s">
-        <v>14</v>
+      <c r="C7" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="1">
         <v>1751052</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>215</v>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1751053</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D8" s="1">
         <v>1751053</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>215</v>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1751054</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="D9" s="1">
         <v>1751054</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>215</v>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1751055</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D10" s="1">
         <v>1751055</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1">
         <v>9</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>215</v>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1751125</v>
       </c>
-      <c r="C11" t="s">
-        <v>18</v>
+      <c r="C11" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="D11" s="1">
         <v>1751125</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>215</v>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1751057</v>
       </c>
-      <c r="C12" t="s">
-        <v>19</v>
+      <c r="C12" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="D12" s="1">
         <v>1751057</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1">
         <v>11</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
-        <v>215</v>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1751058</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
+      <c r="C13" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D13" s="1">
         <v>1751058</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="F13" s="1">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>215</v>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1751029</v>
       </c>
-      <c r="C14" t="s">
-        <v>21</v>
+      <c r="C14" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D14" s="1">
         <v>1751029</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="F14" s="1">
         <v>13</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>215</v>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>1751059</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
+      <c r="C15" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="D15" s="1">
         <v>1751059</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="F15" s="1">
         <v>14</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>215</v>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1751002</v>
       </c>
-      <c r="C16" t="s">
-        <v>23</v>
+      <c r="C16" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="D16" s="1">
         <v>1751002</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1">
         <v>15</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>215</v>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>1751001</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
+      <c r="C17" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D17" s="1">
         <v>1751001</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1">
         <v>16</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>215</v>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>1751060</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
+      <c r="C18" s="3" t="s">
+        <v>138</v>
       </c>
       <c r="D18" s="1">
         <v>1751060</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1">
         <v>17</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>215</v>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>1751061</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
+      <c r="C19" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="D19" s="1">
         <v>1751061</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1">
         <v>18</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>215</v>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>1751062</v>
       </c>
-      <c r="C20" t="s">
-        <v>27</v>
+      <c r="C20" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D20" s="1">
         <v>1751062</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="F20" s="1">
         <v>19</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
-        <v>215</v>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>1751063</v>
       </c>
-      <c r="C21" t="s">
-        <v>28</v>
+      <c r="C21" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="D21" s="1">
         <v>1751063</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="F21" s="1">
         <v>20</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>215</v>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>1751064</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
+      <c r="C22" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="D22" s="1">
         <v>1751064</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>133</v>
+        <v>29</v>
       </c>
       <c r="F22" s="1">
         <v>21</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>215</v>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>1751065</v>
       </c>
-      <c r="C23" t="s">
-        <v>30</v>
+      <c r="C23" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D23" s="1">
         <v>1751065</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1">
         <v>22</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>215</v>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1751004</v>
       </c>
-      <c r="C24" t="s">
-        <v>31</v>
+      <c r="C24" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D24" s="1">
         <v>1751004</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="F24" s="1">
         <v>23</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>215</v>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>1751045</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
+      <c r="C25" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D25" s="1">
         <v>1751045</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="F25" s="1">
         <v>24</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
-        <v>215</v>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>1751005</v>
       </c>
-      <c r="C26" t="s">
-        <v>33</v>
+      <c r="C26" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D26" s="1">
         <v>1751005</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>137</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1">
         <v>25</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>215</v>
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>1751066</v>
       </c>
-      <c r="C27" t="s">
-        <v>34</v>
+      <c r="C27" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D27" s="1">
         <v>1751066</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="F27" s="1">
         <v>26</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>215</v>
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>1751067</v>
       </c>
-      <c r="C28" t="s">
-        <v>35</v>
+      <c r="C28" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D28" s="1">
         <v>1751067</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="F28" s="1">
         <v>27</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>215</v>
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>1751068</v>
       </c>
-      <c r="C29" t="s">
-        <v>36</v>
+      <c r="C29" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D29" s="1">
         <v>1751068</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="F29" s="1">
         <v>28</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>215</v>
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>1751069</v>
       </c>
-      <c r="C30" t="s">
-        <v>37</v>
+      <c r="C30" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="D30" s="1">
         <v>1751069</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1">
         <v>29</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>215</v>
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>1751070</v>
       </c>
-      <c r="C31" t="s">
-        <v>38</v>
+      <c r="C31" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D31" s="1">
         <v>1751070</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1">
         <v>30</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>215</v>
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>1751008</v>
       </c>
-      <c r="C32" t="s">
-        <v>39</v>
+      <c r="C32" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D32" s="1">
         <v>1751008</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="F32" s="1">
         <v>31</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>215</v>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>1751030</v>
       </c>
-      <c r="C33" t="s">
-        <v>40</v>
+      <c r="C33" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="D33" s="1">
         <v>1751030</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1">
         <v>32</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>215</v>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>1751071</v>
       </c>
-      <c r="C34" t="s">
-        <v>41</v>
+      <c r="C34" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="D34" s="1">
         <v>1751071</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="F34" s="1">
         <v>33</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
-        <v>215</v>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>1751072</v>
       </c>
-      <c r="C35" t="s">
-        <v>42</v>
+      <c r="C35" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="D35" s="1">
         <v>1751072</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="F35" s="1">
         <v>34</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
-        <v>215</v>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>1751074</v>
       </c>
-      <c r="C36" t="s">
-        <v>43</v>
+      <c r="C36" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="D36" s="1">
         <v>1751074</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1">
         <v>35</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
-        <v>215</v>
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>1751076</v>
       </c>
-      <c r="C37" t="s">
-        <v>44</v>
+      <c r="C37" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="D37" s="1">
         <v>1751076</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1">
         <v>36</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
-        <v>215</v>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>1751077</v>
       </c>
-      <c r="C38" t="s">
-        <v>45</v>
+      <c r="C38" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="D38" s="1">
         <v>1751077</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1">
         <v>37</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
-        <v>215</v>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>1751124</v>
       </c>
-      <c r="C39" t="s">
-        <v>46</v>
+      <c r="C39" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D39" s="1">
         <v>1751124</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>150</v>
+        <v>46</v>
       </c>
       <c r="F39" s="1">
         <v>38</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
-        <v>215</v>
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>1751039</v>
       </c>
-      <c r="C40" t="s">
-        <v>47</v>
+      <c r="C40" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D40" s="1">
         <v>1751039</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1">
         <v>39</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
-        <v>215</v>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>1751031</v>
       </c>
-      <c r="C41" t="s">
-        <v>48</v>
+      <c r="C41" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D41" s="1">
         <v>1751031</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1">
         <v>40</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
-        <v>215</v>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>1751078</v>
       </c>
-      <c r="C42" t="s">
-        <v>49</v>
+      <c r="C42" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D42" s="1">
         <v>1751078</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="F42" s="1">
         <v>41</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
-        <v>215</v>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>1751080</v>
       </c>
-      <c r="C43" t="s">
-        <v>50</v>
+      <c r="C43" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="D43" s="1">
         <v>1751080</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="F43" s="1">
         <v>42</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
-        <v>215</v>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>1751041</v>
       </c>
-      <c r="C44" t="s">
-        <v>51</v>
+      <c r="C44" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D44" s="1">
         <v>1751041</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="F44" s="1">
         <v>43</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
-        <v>215</v>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>1751011</v>
       </c>
-      <c r="C45" t="s">
-        <v>52</v>
+      <c r="C45" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D45" s="1">
         <v>1751011</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="F45" s="1">
         <v>44</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>215</v>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>1751081</v>
       </c>
-      <c r="C46" t="s">
-        <v>53</v>
+      <c r="C46" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D46" s="1">
         <v>1751081</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1">
         <v>45</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
-        <v>215</v>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>1751082</v>
       </c>
-      <c r="C47" t="s">
-        <v>54</v>
+      <c r="C47" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D47" s="1">
         <v>1751082</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1">
         <v>46</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
-        <v>215</v>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>1751012</v>
       </c>
-      <c r="C48" t="s">
-        <v>55</v>
+      <c r="C48" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="D48" s="1">
         <v>1751012</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="F48" s="1">
         <v>47</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
-        <v>215</v>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>1751043</v>
       </c>
-      <c r="C49" t="s">
-        <v>56</v>
+      <c r="C49" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D49" s="1">
         <v>1751043</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1">
         <v>48</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
-        <v>215</v>
+      <c r="G49" s="1">
+        <v>0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>1751013</v>
       </c>
-      <c r="C50" t="s">
-        <v>57</v>
+      <c r="C50" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D50" s="1">
         <v>1751013</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="F50" s="1">
         <v>49</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
-        <v>215</v>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>1751083</v>
       </c>
-      <c r="C51" t="s">
-        <v>58</v>
+      <c r="C51" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D51" s="1">
         <v>1751083</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="F51" s="1">
         <v>50</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>215</v>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>1751084</v>
       </c>
-      <c r="C52" t="s">
-        <v>59</v>
+      <c r="C52" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D52" s="1">
         <v>1751084</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="F52" s="1">
         <v>51</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
-        <v>215</v>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>1751085</v>
       </c>
-      <c r="C53" t="s">
-        <v>60</v>
+      <c r="C53" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="D53" s="1">
         <v>1751085</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>164</v>
+        <v>60</v>
       </c>
       <c r="F53" s="1">
         <v>52</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
-        <v>215</v>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>1751016</v>
       </c>
-      <c r="C54" t="s">
-        <v>61</v>
+      <c r="C54" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D54" s="1">
         <v>1751016</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="F54" s="1">
         <v>53</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
-        <v>216</v>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>1751033</v>
       </c>
-      <c r="C55" t="s">
-        <v>62</v>
+      <c r="C55" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="D55" s="1">
         <v>1751033</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="F55" s="1">
         <v>54</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
-        <v>216</v>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>1751086</v>
       </c>
-      <c r="C56" t="s">
-        <v>63</v>
+      <c r="C56" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D56" s="1">
         <v>1751086</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="F56" s="1">
         <v>55</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
-        <v>216</v>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>1751087</v>
       </c>
-      <c r="C57" t="s">
-        <v>64</v>
+      <c r="C57" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="D57" s="1">
         <v>1751087</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>168</v>
+        <v>64</v>
       </c>
       <c r="F57" s="1">
         <v>56</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
-        <v>216</v>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>1751089</v>
       </c>
-      <c r="C58" t="s">
-        <v>65</v>
+      <c r="C58" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="D58" s="1">
         <v>1751089</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="F58" s="1">
         <v>57</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
-        <v>216</v>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>1751090</v>
       </c>
-      <c r="C59" t="s">
-        <v>66</v>
+      <c r="C59" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D59" s="1">
         <v>1751090</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="F59" s="1">
         <v>58</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
-        <v>216</v>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>1751091</v>
       </c>
-      <c r="C60" t="s">
-        <v>67</v>
+      <c r="C60" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D60" s="1">
         <v>1751091</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="F60" s="1">
         <v>59</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
-        <v>216</v>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>1751092</v>
       </c>
-      <c r="C61" t="s">
-        <v>68</v>
+      <c r="C61" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="D61" s="1">
         <v>1751092</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1">
         <v>60</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
-        <v>216</v>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>1751093</v>
       </c>
-      <c r="C62" t="s">
-        <v>69</v>
+      <c r="C62" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="D62" s="1">
         <v>1751093</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>173</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1">
         <v>61</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="I62" t="s">
-        <v>216</v>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>1751094</v>
       </c>
-      <c r="C63" t="s">
-        <v>70</v>
+      <c r="C63" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="D63" s="1">
         <v>1751094</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="F63" s="1">
         <v>62</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
-        <v>216</v>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>1751046</v>
       </c>
-      <c r="C64" t="s">
-        <v>71</v>
+      <c r="C64" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="D64" s="1">
         <v>1751046</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F64" s="1">
         <v>63</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>216</v>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>1751096</v>
       </c>
-      <c r="C65" t="s">
-        <v>72</v>
+      <c r="C65" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="D65" s="1">
         <v>1751096</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="F65" s="1">
         <v>64</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>216</v>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>1751097</v>
       </c>
-      <c r="C66" t="s">
-        <v>73</v>
+      <c r="C66" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="D66" s="1">
         <v>1751097</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="F66" s="1">
         <v>65</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
-        <v>216</v>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>1751035</v>
       </c>
-      <c r="C67" t="s">
-        <v>74</v>
+      <c r="C67" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="D67" s="1">
         <v>1751035</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>178</v>
+        <v>74</v>
       </c>
       <c r="F67" s="1">
         <v>66</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
-        <v>216</v>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>1751098</v>
       </c>
-      <c r="C68" t="s">
-        <v>75</v>
+      <c r="C68" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="D68" s="1">
         <v>1751098</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="F68" s="1">
         <v>67</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
-        <v>216</v>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>1751099</v>
       </c>
-      <c r="C69" t="s">
-        <v>76</v>
+      <c r="C69" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D69" s="1">
         <v>1751099</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="F69" s="1">
         <v>68</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
-        <v>216</v>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>1751100</v>
       </c>
-      <c r="C70" t="s">
-        <v>77</v>
+      <c r="C70" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="D70" s="1">
         <v>1751100</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="F70" s="1">
         <v>69</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>216</v>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>1751018</v>
       </c>
-      <c r="C71" t="s">
-        <v>78</v>
+      <c r="C71" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D71" s="1">
         <v>1751018</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="F71" s="1">
         <v>70</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="I71" t="s">
-        <v>216</v>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>1751101</v>
       </c>
-      <c r="C72" t="s">
-        <v>79</v>
+      <c r="C72" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="D72" s="1">
         <v>1751101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="F72" s="1">
         <v>71</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
-        <v>216</v>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>1751021</v>
       </c>
-      <c r="C73" t="s">
-        <v>80</v>
+      <c r="C73" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="D73" s="1">
         <v>1751021</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="F73" s="1">
         <v>72</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>216</v>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>1751102</v>
       </c>
-      <c r="C74" t="s">
-        <v>81</v>
+      <c r="C74" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="D74" s="1">
         <v>1751102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>185</v>
+        <v>81</v>
       </c>
       <c r="F74" s="1">
         <v>73</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
-        <v>216</v>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>1751019</v>
       </c>
-      <c r="C75" t="s">
-        <v>82</v>
+      <c r="C75" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="D75" s="1">
         <v>1751019</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="F75" s="1">
         <v>74</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="I75" t="s">
-        <v>216</v>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>1751103</v>
       </c>
-      <c r="C76" t="s">
-        <v>83</v>
+      <c r="C76" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="D76" s="1">
         <v>1751103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="F76" s="1">
         <v>75</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="I76" t="s">
-        <v>216</v>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>1751020</v>
       </c>
-      <c r="C77" t="s">
-        <v>84</v>
+      <c r="C77" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="D77" s="1">
         <v>1751020</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="F77" s="1">
         <v>76</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>216</v>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>1751040</v>
       </c>
-      <c r="C78" t="s">
-        <v>85</v>
+      <c r="C78" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="D78" s="1">
         <v>1751040</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="F78" s="1">
         <v>77</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>216</v>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>1751104</v>
       </c>
-      <c r="C79" t="s">
-        <v>86</v>
+      <c r="C79" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="D79" s="1">
         <v>1751104</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="F79" s="1">
         <v>78</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>216</v>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>1751022</v>
       </c>
-      <c r="C80" t="s">
-        <v>87</v>
+      <c r="C80" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="D80" s="1">
         <v>1751022</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>190</v>
+        <v>86</v>
       </c>
       <c r="F80" s="1">
         <v>79</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>216</v>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>1751105</v>
       </c>
-      <c r="C81" t="s">
-        <v>88</v>
+      <c r="C81" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="D81" s="1">
         <v>1751105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="F81" s="1">
         <v>80</v>
       </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
-        <v>216</v>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>1751023</v>
       </c>
-      <c r="C82" t="s">
-        <v>89</v>
+      <c r="C82" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="D82" s="1">
         <v>1751023</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>192</v>
+        <v>88</v>
       </c>
       <c r="F82" s="1">
         <v>81</v>
       </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
-        <v>216</v>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>1751036</v>
       </c>
-      <c r="C83" t="s">
-        <v>90</v>
+      <c r="C83" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="D83" s="1">
         <v>1751036</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>193</v>
+        <v>89</v>
       </c>
       <c r="F83" s="1">
         <v>82</v>
       </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
-        <v>216</v>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>1751037</v>
       </c>
-      <c r="C84" t="s">
-        <v>91</v>
+      <c r="C84" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="D84" s="1">
         <v>1751037</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="F84" s="1">
         <v>83</v>
       </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
-        <v>216</v>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>1751042</v>
       </c>
-      <c r="C85" t="s">
-        <v>92</v>
+      <c r="C85" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D85" s="1">
         <v>1751042</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1">
         <v>84</v>
       </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
-        <v>216</v>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>1751106</v>
       </c>
-      <c r="C86" t="s">
-        <v>93</v>
+      <c r="C86" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="D86" s="1">
         <v>1751106</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="F86" s="1">
         <v>85</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
-        <v>216</v>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>1751107</v>
       </c>
-      <c r="C87" t="s">
-        <v>94</v>
+      <c r="C87" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="D87" s="1">
         <v>1751107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="F87" s="1">
         <v>86</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>216</v>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>1751024</v>
       </c>
-      <c r="C88" t="s">
-        <v>95</v>
+      <c r="C88" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D88" s="1">
         <v>1751024</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="F88" s="1">
         <v>87</v>
       </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>216</v>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>1751108</v>
       </c>
-      <c r="C89" t="s">
-        <v>96</v>
+      <c r="C89" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="D89" s="1">
         <v>1751108</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>199</v>
+        <v>95</v>
       </c>
       <c r="F89" s="1">
         <v>88</v>
       </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
-        <v>216</v>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>1751109</v>
       </c>
-      <c r="C90" t="s">
-        <v>97</v>
+      <c r="C90" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="D90" s="1">
         <v>1751109</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="F90" s="1">
         <v>89</v>
       </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
-        <v>216</v>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>1751044</v>
       </c>
-      <c r="C91" t="s">
-        <v>98</v>
+      <c r="C91" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="D91" s="1">
         <v>1751044</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="F91" s="1">
         <v>90</v>
       </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
-        <v>216</v>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>1751111</v>
       </c>
-      <c r="C92" t="s">
-        <v>99</v>
+      <c r="C92" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D92" s="1">
         <v>1751111</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="F92" s="1">
         <v>91</v>
       </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="I92" t="s">
-        <v>216</v>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>1751112</v>
       </c>
-      <c r="C93" t="s">
-        <v>100</v>
+      <c r="C93" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="D93" s="1">
         <v>1751112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>203</v>
+        <v>99</v>
       </c>
       <c r="F93" s="1">
         <v>92</v>
       </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="I93" t="s">
-        <v>216</v>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>1751113</v>
       </c>
-      <c r="C94" t="s">
-        <v>101</v>
+      <c r="C94" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="D94" s="1">
         <v>1751113</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="F94" s="1">
         <v>93</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
-        <v>216</v>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>1751026</v>
       </c>
-      <c r="C95" t="s">
-        <v>102</v>
+      <c r="C95" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="D95" s="1">
         <v>1751026</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="F95" s="1">
         <v>94</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1751114</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>1751114</v>
-      </c>
-      <c r="C96" t="s">
-        <v>103</v>
       </c>
       <c r="D96" s="1">
         <v>1751114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="F96" s="1">
         <v>95</v>
       </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="I96" t="s">
-        <v>216</v>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>1751115</v>
       </c>
-      <c r="C97" t="s">
-        <v>104</v>
+      <c r="C97" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="D97" s="1">
         <v>1751115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="F97" s="1">
         <v>96</v>
       </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
-        <v>216</v>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>1751116</v>
       </c>
-      <c r="C98" t="s">
-        <v>105</v>
+      <c r="C98" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="D98" s="1">
         <v>1751116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="F98" s="1">
         <v>97</v>
       </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
-        <v>216</v>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>1751119</v>
       </c>
-      <c r="C99" t="s">
-        <v>106</v>
+      <c r="C99" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D99" s="1">
         <v>1751119</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="F99" s="1">
         <v>98</v>
       </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>216</v>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>1751120</v>
       </c>
-      <c r="C100" t="s">
-        <v>107</v>
+      <c r="C100" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D100" s="1">
         <v>1751120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="F100" s="1">
         <v>99</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="I100" t="s">
-        <v>216</v>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>1751121</v>
       </c>
-      <c r="C101" t="s">
-        <v>108</v>
+      <c r="C101" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="D101" s="1">
         <v>1751121</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>210</v>
+        <v>106</v>
       </c>
       <c r="F101" s="1">
         <v>100</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>216</v>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>1751122</v>
       </c>
-      <c r="C102" t="s">
-        <v>109</v>
+      <c r="C102" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="D102" s="1">
         <v>1751122</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="F102" s="1">
         <v>101</v>
       </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>216</v>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>1751027</v>
       </c>
-      <c r="C103" t="s">
-        <v>110</v>
+      <c r="C103" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D103" s="1">
         <v>1751027</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="F103" s="1">
         <v>102</v>
       </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
-        <v>216</v>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>1751028</v>
       </c>
-      <c r="C104" t="s">
-        <v>111</v>
+      <c r="C104" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D104" s="1">
         <v>1751028</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="F104" s="1">
         <v>103</v>
       </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="I104" t="s">
-        <v>216</v>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>1751123</v>
       </c>
-      <c r="C105" t="s">
-        <v>112</v>
+      <c r="C105" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D105" s="1">
         <v>1751123</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>214</v>
+        <v>110</v>
       </c>
       <c r="F105" s="1">
         <v>104</v>
       </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
-        <v>216</v>
+      <c r="G105" s="1">
+        <v>0</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
+      <c r="B106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="1">
+        <v>105</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
+      <c r="B107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F107" s="1">
+        <v>106</v>
+      </c>
+      <c r="G107" s="1">
+        <v>2</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
+      <c r="B108" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D108" s="1">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F108" s="1">
+        <v>107</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
+      <c r="B109" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F109" s="1">
+        <v>108</v>
+      </c>
+      <c r="G109" s="1">
+        <v>2</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
+      <c r="B110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F110" s="1">
+        <v>109</v>
+      </c>
+      <c r="G110" s="1">
+        <v>2</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
+      <c r="B111" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D111" s="1">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F111" s="1">
+        <v>110</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F112" s="1">
+        <v>111</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" s="1">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F113" s="1">
+        <v>112</v>
+      </c>
+      <c r="G113" s="1">
+        <v>2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="B114" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F114" s="1">
+        <v>113</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="B115" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F115" s="1">
+        <v>114</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="B116" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F116" s="1">
+        <v>115</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="B117" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F117" s="1">
+        <v>116</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="B118" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F118" s="1">
+        <v>117</v>
+      </c>
+      <c r="G118" s="1">
+        <v>2</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="B119" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F119" s="1">
+        <v>118</v>
+      </c>
+      <c r="G119" s="1">
+        <v>2</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="B120" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F120" s="1">
+        <v>119</v>
+      </c>
+      <c r="G120" s="1">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F121" s="1">
+        <v>120</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3979,6 +4824,22 @@
     <hyperlink ref="E103" r:id="rId102" xr:uid="{12892672-B5A5-4B95-852B-BA6447F536F1}"/>
     <hyperlink ref="E104" r:id="rId103" xr:uid="{1C8BF656-E76A-4B8C-8951-2D253811FF1D}"/>
     <hyperlink ref="E105" r:id="rId104" xr:uid="{18147A36-4567-489E-8787-D5329AB5161B}"/>
+    <hyperlink ref="E106" r:id="rId105" xr:uid="{A62E9E7E-B72F-4CD5-A0CF-7358F88D9251}"/>
+    <hyperlink ref="E107" r:id="rId106" xr:uid="{13A5849F-0237-426F-A493-902402FB5AC5}"/>
+    <hyperlink ref="E108" r:id="rId107" xr:uid="{8AB48B66-32EB-410E-BF34-12F346DC4580}"/>
+    <hyperlink ref="E109" r:id="rId108" xr:uid="{87389910-F40C-4C0B-8FD9-129D82A6A0A2}"/>
+    <hyperlink ref="E110" r:id="rId109" xr:uid="{BAAB6814-D108-4AD1-94E1-05A53FF7B625}"/>
+    <hyperlink ref="E111" r:id="rId110" xr:uid="{6E8700C6-E3C4-49F0-AE61-4EC03EA28F33}"/>
+    <hyperlink ref="E112" r:id="rId111" xr:uid="{93C4D097-4A53-4BE6-B4F9-5E9013EDE363}"/>
+    <hyperlink ref="E113" r:id="rId112" xr:uid="{71E76A1D-CA2D-4AEB-A17B-66B3DE8E268E}"/>
+    <hyperlink ref="E114" r:id="rId113" xr:uid="{18A42DAC-231E-483B-BD0B-C37F70A08C0E}"/>
+    <hyperlink ref="E115" r:id="rId114" xr:uid="{49FEE8C6-A1D9-4B19-BE79-308879EBA04A}"/>
+    <hyperlink ref="E116" r:id="rId115" xr:uid="{2AB7504D-264D-4951-A99F-82EBEFF7031B}"/>
+    <hyperlink ref="E117" r:id="rId116" xr:uid="{63381896-945C-4E8A-818F-CF844D7F7F2A}"/>
+    <hyperlink ref="E118" r:id="rId117" xr:uid="{F6C9F7A0-082E-4BDB-85D6-429084EE8F18}"/>
+    <hyperlink ref="E119" r:id="rId118" xr:uid="{AA93D105-B663-4B70-9546-7A267B6729D2}"/>
+    <hyperlink ref="E120" r:id="rId119" xr:uid="{92F9CB15-079A-4F6E-9B98-5EFB7686894E}"/>
+    <hyperlink ref="E121" r:id="rId120" xr:uid="{473029DB-3E19-449B-BFBC-F7F77F75305F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
